--- a/UnityPortfolio/Assets/Data/DataTable.xlsx
+++ b/UnityPortfolio/Assets/Data/DataTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paper\Documents\Git\Unity_portfolio\UnityPortfolio\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05A99AA-62EA-4DE9-8A3B-F1AEFA0A9E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0399F937-C76D-4428-8B9E-F3EADEC824FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ABC4B4D7-C4FB-42D1-8B25-CE1831E1C825}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>DefaultSkill</t>
   </si>
   <si>
-    <t>Prefabs/SworldSlash1</t>
-  </si>
-  <si>
     <t>ID(int)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -131,6 +128,10 @@
   </si>
   <si>
     <t>FXDelay(float)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/FX/SworldSlash1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +546,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -610,22 +611,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -659,41 +660,41 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -722,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2">
         <v>0.3</v>
@@ -731,5 +732,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UnityPortfolio/Assets/Data/DataTable.xlsx
+++ b/UnityPortfolio/Assets/Data/DataTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paper\Documents\Git\Unity_portfolio\UnityPortfolio\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0399F937-C76D-4428-8B9E-F3EADEC824FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0777CB6-8B75-492C-B47E-A2E1125F1F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ABC4B4D7-C4FB-42D1-8B25-CE1831E1C825}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ABC4B4D7-C4FB-42D1-8B25-CE1831E1C825}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogData" sheetId="1" r:id="rId1"/>
@@ -603,11 +603,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F4DB43-5651-4A54-A8E2-68001D39F056}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -629,7 +635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -659,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B8A140-3245-4530-BC03-533B7263DFFD}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
